--- a/DesignTable.xlsx
+++ b/DesignTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\State Street Project\Team4_Interns2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Customer</t>
   </si>
@@ -153,13 +153,25 @@
   </si>
   <si>
     <t>primary key ,not null</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Customer Table :</t>
+  </si>
+  <si>
+    <t>Restaurant table :</t>
+  </si>
+  <si>
+    <t>unique,not null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +181,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -323,14 +343,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -346,35 +476,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -382,42 +499,133 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -440,13 +648,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -487,6 +688,30 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -495,20 +720,44 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -532,20 +781,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:C12" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:C12" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A7:C12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Customer"/>
-    <tableColumn id="2" name="Datatype" dataDxfId="4"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="3"/>
+    <tableColumn id="2" name="Datatype" dataDxfId="20"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="H4:H10" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="H4:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F33:F39" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="F33:F39"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Salon"/>
   </tableColumns>
@@ -554,7 +803,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="J8:J13" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="J8:J13" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="J8:J13"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Spa"/>
@@ -564,19 +813,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A15:C22" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A15:C22" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A15:C22"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Business" dataDxfId="1"/>
+    <tableColumn id="1" name="Business" dataDxfId="17"/>
     <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="0"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F9:F17" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F9:F17" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="F9:F17"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Products"/>
@@ -586,7 +835,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A25:C30" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A25:C30" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A25:C30"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Admin"/>
@@ -598,7 +847,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="F23:F28" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="F23:F28" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="F23:F28"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Support"/>
@@ -608,17 +857,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="F1:F4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="F1:F4"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Restaurant"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="F3:H6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="F3:H6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Restaurant" dataDxfId="3"/>
+    <tableColumn id="2" name="Datatype" dataDxfId="2"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J21:J26" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J21:J26" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="J21:J26"/>
   <tableColumns count="1">
     <tableColumn id="1" name="myorder"/>
@@ -628,8 +879,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="H16:H21" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="H16:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="J31:J36" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="J31:J36"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Payment"/>
   </tableColumns>
@@ -638,7 +889,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="User"/>
@@ -912,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,97 +1176,115 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="G3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1023,13 +1292,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1040,13 +1309,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
@@ -1057,13 +1326,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
@@ -1071,9 +1340,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="F12" t="s">
         <v>12</v>
       </c>
@@ -1089,13 +1358,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F15" t="s">
@@ -1103,80 +1372,68 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1184,9 +1441,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="J22" t="s">
         <v>18</v>
       </c>
@@ -1208,13 +1465,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="F25" t="s">
@@ -1225,13 +1482,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1239,25 +1496,56 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
